--- a/biology/Zoologie/Bubalus/Bubalus.xlsx
+++ b/biology/Zoologie/Bubalus/Bubalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bubalus regroupe les buffles asiatiques. Traduction de l'anglais water buffalo, l'appellation pour ce genre de « buffle d'eau » que l'on rencontre parfois, est un pléonasme en français (pas en anglais où elle sert à distinguer le buffle du bison également appelé buffalo). En effet le buffle, inféodé à l'état sauvage aux milieux humides, reste très attiré par les zones aquatiques et il n'existe pas de « buffle de terre », à moins d'appeler ainsi le genre sauvage africain Syncerus, qui a une morphologie différente.
 </t>
@@ -511,9 +523,11 @@
           <t>Préhistoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude récente (2021), en réévaluant la distribution spatiotemporelle et l'écologie des mammifères préhistorique des steppes à Mammouths du Nord-est de l'Asie (en Chine) a montré, sur la base de la datation directe au radiocarbone et de ZooMS, « la présence crédible de Bubalus, généralement interprété comme un élément faunique de climat doux au Pléistocène, au sein du complexe faunique Mammuthus-Coelodonta (Mammouth laineux-Rhinocéros laineux) à Yanjiagang »[1]. Selon les auteurs, ceci « souligne le scénario unique de ce biome en Asie du Nord-Est, où la faune a montré une sensibilité aux effets synergiques des oscillations climatiques et des traits géographiques locaux »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude récente (2021), en réévaluant la distribution spatiotemporelle et l'écologie des mammifères préhistorique des steppes à Mammouths du Nord-est de l'Asie (en Chine) a montré, sur la base de la datation directe au radiocarbone et de ZooMS, « la présence crédible de Bubalus, généralement interprété comme un élément faunique de climat doux au Pléistocène, au sein du complexe faunique Mammuthus-Coelodonta (Mammouth laineux-Rhinocéros laineux) à Yanjiagang ». Selon les auteurs, ceci « souligne le scénario unique de ce biome en Asie du Nord-Est, où la faune a montré une sensibilité aux effets synergiques des oscillations climatiques et des traits géographiques locaux ».
 </t>
         </is>
       </c>
@@ -542,22 +556,24 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 janvier 2014)[2], ce genre de buffles comprend quatre espèces originaires d'Asie :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 janvier 2014), ce genre de buffles comprend quatre espèces originaires d'Asie :
 Bubalus bubalis (Kerr, 1792) — buffle commun,
-sous-espèce Bubalus bubalis arnee[3]
-sous-espèce Bubalus bubalis bubalis[3]
-sous-espèce Bubalus bubalis fulvus[3]
-sous-espèce Bubalus bubalis kerabau[3]
-sous-espèce Bubalus bubalis migona[3]
-sous-espèce Bubalus bubalis theerapati[3]
+sous-espèce Bubalus bubalis arnee
+sous-espèce Bubalus bubalis bubalis
+sous-espèce Bubalus bubalis fulvus
+sous-espèce Bubalus bubalis kerabau
+sous-espèce Bubalus bubalis migona
+sous-espèce Bubalus bubalis theerapati
 Bubalus depressicornis (H. Smith, 1827) — anoa des plaines,
 Bubalus quarlesi (Ouwens, 1910) — anoa des montagnes,
 Bubalus mindorensis (Heude, 1888) - tamarau.
 Ainsi qu'une espèce éteinte :
 Bubalus mephistopheles (Hopwood, 1925).
-Paleobiology Database                   (29 janvier 2014)[4] recense en outre plusieurs espèces disparues : 
+Paleobiology Database                   (29 janvier 2014) recense en outre plusieurs espèces disparues : 
 Bubalus brevicornis
 Bubalus cebuensis
 Bubalus guzhensis
